--- a/6/1/2/1/1/Posiciones mensuales por plazo residual 2019 a 2021 - Trimestral.xlsx
+++ b/6/1/2/1/1/Posiciones mensuales por plazo residual 2019 a 2021 - Trimestral.xlsx
@@ -762,7 +762,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>146036</v>
+        <v>146076</v>
       </c>
       <c r="C11">
         <v>24373</v>
@@ -786,7 +786,7 @@
         <v>28316</v>
       </c>
       <c r="J11">
-        <v>19158</v>
+        <v>19198</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/2/1/1/Posiciones mensuales por plazo residual 2019 a 2021 - Trimestral.xlsx
+++ b/6/1/2/1/1/Posiciones mensuales por plazo residual 2019 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Serie</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -789,6 +792,38 @@
         <v>19198</v>
       </c>
     </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>171950</v>
+      </c>
+      <c r="C12">
+        <v>33123</v>
+      </c>
+      <c r="D12">
+        <v>17511</v>
+      </c>
+      <c r="E12">
+        <v>11152</v>
+      </c>
+      <c r="F12">
+        <v>11341</v>
+      </c>
+      <c r="G12">
+        <v>15161</v>
+      </c>
+      <c r="H12">
+        <v>32203</v>
+      </c>
+      <c r="I12">
+        <v>30009</v>
+      </c>
+      <c r="J12">
+        <v>21451</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
